--- a/data/trans_orig/P14B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0D4306-BEE3-4ED5-8FEE-D07FB779052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC30226-DBE8-4B91-B73D-37B3A8822E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFEB86AE-E21D-4A42-96B6-FA85B74756D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A67AD6-8BF5-4DDE-8D68-97FCC4BDDC71}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -111,49 +111,49 @@
     <t>7,5%</t>
   </si>
   <si>
-    <t>32,31%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>67,69%</t>
+    <t>66,07%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -162,25 +162,25 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>15,08%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>58,37%</t>
@@ -189,19 +189,19 @@
     <t>68,06%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>64,41%</t>
@@ -210,7 +210,7 @@
     <t>41,63%</t>
   </si>
   <si>
-    <t>84,92%</t>
+    <t>85,38%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -219,43 +219,43 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>77,27%</t>
+    <t>74,06%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>56,78%</t>
+    <t>56,36%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>25,94%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>43,22%</t>
+    <t>43,64%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -267,31 +267,31 @@
     <t>7,44%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>65,3%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>34,7%</t>
   </si>
   <si>
     <t>92,56%</t>
@@ -300,73 +300,73 @@
     <t>58,28%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -396,49 +396,49 @@
     <t>11,76%</t>
   </si>
   <si>
-    <t>51,78%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>48,22%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>17,78%</t>
@@ -450,19 +450,19 @@
     <t>31,89%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>82,22%</t>
@@ -474,121 +474,115 @@
     <t>68,11%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>21,49%</t>
+    <t>26,75%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>78,51%</t>
+    <t>73,25%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9F6A57-F0DF-41CC-81A6-FDFFED23FB34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B3C093-9F3C-46CA-93DC-42179E0D74BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2063,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE05B0AA-5997-4564-9DE0-6FB96CBED3D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35EDEB-46A3-4CC6-B2A6-07E8718EF4C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,13 +2831,13 @@
         <v>6240</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,10 +2852,10 @@
         <v>18786</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2873,13 +2867,13 @@
         <v>4857</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2888,13 +2882,13 @@
         <v>23642</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2956,13 @@
         <v>2879</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2977,13 +2971,13 @@
         <v>16543</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2992,13 +2986,13 @@
         <v>19422</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3007,13 @@
         <v>32582</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3028,13 +3022,13 @@
         <v>39900</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -3043,13 +3037,13 @@
         <v>72481</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC30226-DBE8-4B91-B73D-37B3A8822E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE386E50-630F-40E5-9AAD-AE6C6E7D5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A67AD6-8BF5-4DDE-8D68-97FCC4BDDC71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3949A8D2-4BB2-4153-8CB5-17435800E78A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="184">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,157 +105,157 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>32,97%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>66,07%</t>
+    <t>67,03%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>64,41%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>74,06%</t>
+    <t>74,19%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>56,36%</t>
+    <t>56,37%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>25,94%</t>
+    <t>25,81%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>43,64%</t>
+    <t>43,63%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -264,115 +264,115 @@
     <t>29,75%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población cuyo problemas crónicos de la piel le limita en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -396,193 +396,199 @@
     <t>11,76%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>55,32%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>50,63%</t>
+    <t>44,68%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>78,48%</t>
+    <t>78,07%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>86,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B3C093-9F3C-46CA-93DC-42179E0D74BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182FFD8D-850B-4BE5-B3A9-9351A745910E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2057,7 +2063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35EDEB-46A3-4CC6-B2A6-07E8718EF4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C693B18-FA86-41A2-A62F-49CA108625BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,13 +2837,13 @@
         <v>6240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,10 +2858,10 @@
         <v>18786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2867,13 +2873,13 @@
         <v>4857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2882,13 +2888,13 @@
         <v>23642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>2879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2971,13 +2977,13 @@
         <v>16543</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2986,13 +2992,13 @@
         <v>19422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3013,13 @@
         <v>32582</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3022,13 +3028,13 @@
         <v>39900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -3037,13 +3043,13 @@
         <v>72481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
